--- a/club/banned_list.xlsx
+++ b/club/banned_list.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,11 +427,21 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Banned Until</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Scott Harvey-Whittle</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15/03/2025</t>
         </is>
       </c>
     </row>
